--- a/data/trans_orig/P17E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E25EAF67-96F1-4E34-97D7-63259A332F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{688EA857-4196-419A-9A9C-4653D29B3AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E7820A5C-43FA-4F04-9B0D-27F7A82CA469}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{242A0D33-CD9A-4024-98C4-7C92B8F8DAC0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,1831 +77,1801 @@
     <t>35,04%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>Médico general</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>Médico general</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>18,78%</t>
   </si>
   <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>79,22%</t>
   </si>
   <si>
     <t>77,22%</t>
@@ -1910,10 +1880,16 @@
     <t>74,48%</t>
   </si>
   <si>
+    <t>79,84%</t>
+  </si>
+  <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>78,71%</t>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84FB1120-A8E3-4884-A5B3-7B8321DAC56B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFA4A64-82D8-45AF-8E21-B4FFCE3858A8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3540,7 +3516,7 @@
         <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -3549,13 +3525,13 @@
         <v>64019</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3564,13 +3540,13 @@
         <v>102003</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3561,13 @@
         <v>142063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>178</v>
@@ -3600,13 +3576,13 @@
         <v>187723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>320</v>
@@ -3615,13 +3591,13 @@
         <v>329786</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>104</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3665,13 @@
         <v>130371</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -3704,13 +3680,13 @@
         <v>210854</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -3719,13 +3695,13 @@
         <v>341225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3716,13 @@
         <v>528931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>820</v>
@@ -3755,13 +3731,13 @@
         <v>837516</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>1351</v>
@@ -3770,13 +3746,13 @@
         <v>1366447</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3808,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A879A6B-2FCB-451D-8DEF-19DE545DC647}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B6E20-8EF3-4195-9B2A-B71028691D28}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,39 +3954,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,39 +3999,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,39 +4044,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4093,13 @@
         <v>16989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4132,13 +4108,13 @@
         <v>22214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4147,13 +4123,13 @@
         <v>39203</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4144,13 @@
         <v>86732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -4183,13 +4159,13 @@
         <v>132153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -4198,13 +4174,13 @@
         <v>218885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,28 +4248,28 @@
         <v>16021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>97</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>20963</v>
+        <v>20962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4302,13 +4278,13 @@
         <v>36983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4299,13 @@
         <v>70306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>105</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -4338,13 +4314,13 @@
         <v>122343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -4353,13 +4329,13 @@
         <v>192650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4362,7 @@
         <v>135</v>
       </c>
       <c r="I12" s="7">
-        <v>143306</v>
+        <v>143305</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4427,13 +4403,13 @@
         <v>34453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4442,13 +4418,13 @@
         <v>37890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4457,13 +4433,13 @@
         <v>72343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4454,13 @@
         <v>98187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -4493,28 +4469,28 @@
         <v>171636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
       </c>
       <c r="N14" s="7">
-        <v>269824</v>
+        <v>269823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,7 +4532,7 @@
         <v>319</v>
       </c>
       <c r="N15" s="7">
-        <v>342167</v>
+        <v>342166</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4582,13 +4558,13 @@
         <v>9250</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4597,13 +4573,13 @@
         <v>19119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4612,13 +4588,13 @@
         <v>28369</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4609,13 @@
         <v>42742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -4648,13 +4624,13 @@
         <v>71921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4663,13 +4639,13 @@
         <v>114663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4713,13 @@
         <v>18121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4752,13 +4728,13 @@
         <v>17406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4767,13 +4743,13 @@
         <v>35528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4764,13 @@
         <v>62714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>88</v>
@@ -4803,13 +4779,13 @@
         <v>92606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -4818,13 +4794,13 @@
         <v>155319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4868,13 @@
         <v>36370</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -4907,13 +4883,13 @@
         <v>53868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4922,13 +4898,13 @@
         <v>90238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4919,13 @@
         <v>131674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -4958,13 +4934,13 @@
         <v>168239</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>270</v>
@@ -4973,13 +4949,13 @@
         <v>299913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5023,13 @@
         <v>31884</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -5062,13 +5038,13 @@
         <v>41848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -5077,13 +5053,13 @@
         <v>73732</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5074,13 @@
         <v>124696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -5113,13 +5089,13 @@
         <v>181259</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -5128,13 +5104,13 @@
         <v>305955</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5178,13 @@
         <v>163088</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -5217,13 +5193,13 @@
         <v>213308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>354</v>
@@ -5232,13 +5208,13 @@
         <v>376396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5229,13 @@
         <v>617052</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>872</v>
@@ -5268,13 +5244,13 @@
         <v>940156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>1437</v>
@@ -5283,13 +5259,13 @@
         <v>1557208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5321,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C63DC7-CAD7-4D0E-AE51-D15BDC142998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C42565-23CA-4440-A3AB-1E6CE6BAB55A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5362,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5469,13 @@
         <v>19441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5508,13 +5484,13 @@
         <v>20815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -5523,13 +5499,13 @@
         <v>40256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5520,13 @@
         <v>48321</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -5559,13 +5535,13 @@
         <v>72885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>115</v>
@@ -5574,13 +5550,13 @@
         <v>121205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5624,13 @@
         <v>20078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5663,13 +5639,13 @@
         <v>33814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5678,13 +5654,13 @@
         <v>53891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5675,13 @@
         <v>90589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -5714,13 +5690,13 @@
         <v>147949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -5729,13 +5705,13 @@
         <v>238539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5779,13 @@
         <v>11642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5818,13 +5794,13 @@
         <v>12257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5833,13 +5809,13 @@
         <v>23898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5830,13 @@
         <v>62725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -5869,13 +5845,13 @@
         <v>91996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>156</v>
@@ -5884,13 +5860,13 @@
         <v>154721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5934,13 @@
         <v>16565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>57</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5973,13 +5949,13 @@
         <v>31330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5988,13 +5964,13 @@
         <v>47895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5985,13 @@
         <v>70842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>66</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -6024,13 +6000,13 @@
         <v>105000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -6039,13 +6015,13 @@
         <v>175841</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6089,13 @@
         <v>2814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6128,13 +6104,13 @@
         <v>8625</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6143,13 +6119,13 @@
         <v>11440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6140,13 @@
         <v>27418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -6179,13 +6155,13 @@
         <v>43125</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -6194,13 +6170,13 @@
         <v>70542</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6244,13 @@
         <v>10268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6283,13 +6259,13 @@
         <v>19884</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -6298,13 +6274,13 @@
         <v>30152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>361</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6295,13 @@
         <v>96637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -6334,13 +6310,13 @@
         <v>110493</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>200</v>
@@ -6349,13 +6325,13 @@
         <v>207130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6399,13 @@
         <v>30701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -6438,13 +6414,13 @@
         <v>40306</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -6453,13 +6429,13 @@
         <v>71008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6450,13 @@
         <v>119327</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -6489,13 +6465,13 @@
         <v>146094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>238</v>
@@ -6504,13 +6480,13 @@
         <v>265420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6554,13 @@
         <v>44443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>225</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -6593,13 +6569,13 @@
         <v>53853</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -6608,13 +6584,13 @@
         <v>98296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>114</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6605,13 @@
         <v>179825</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>233</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -6644,13 +6620,13 @@
         <v>225895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>373</v>
@@ -6659,13 +6635,13 @@
         <v>405720</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,10 +6712,10 @@
         <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>146</v>
       </c>
       <c r="H28" s="7">
         <v>204</v>
@@ -6760,7 +6736,7 @@
         <v>350</v>
       </c>
       <c r="N28" s="7">
-        <v>376836</v>
+        <v>376835</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>463</v>
@@ -6787,10 +6763,10 @@
         <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H29" s="7">
         <v>873</v>
@@ -6862,7 +6838,7 @@
         <v>1889</v>
       </c>
       <c r="N30" s="7">
-        <v>2015954</v>
+        <v>2015953</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6876,7 +6852,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD62DC3-E170-4A42-8E43-C74E272E5956}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E0A5EE-B38B-4A10-9CBB-F29ED9EB3AED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7027,10 +7003,10 @@
         <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -7039,13 +7015,13 @@
         <v>19764</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -7054,10 +7030,10 @@
         <v>31230</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>482</v>
@@ -7081,7 +7057,7 @@
         <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>387</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -7090,13 +7066,13 @@
         <v>51119</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M5" s="7">
         <v>152</v>
@@ -7105,13 +7081,13 @@
         <v>99134</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7170,13 @@
         <v>19828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -7209,10 +7185,10 @@
         <v>48547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>497</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>498</v>
@@ -7245,13 +7221,13 @@
         <v>84234</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>502</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M8" s="7">
         <v>157</v>
@@ -7260,13 +7236,13 @@
         <v>140573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,10 +7328,10 @@
         <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -7364,13 +7340,13 @@
         <v>39444</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7361,13 @@
         <v>48835</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -7400,13 +7376,13 @@
         <v>57693</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>520</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>140</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -7415,13 +7391,13 @@
         <v>106528</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7465,13 @@
         <v>25739</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -7504,13 +7480,13 @@
         <v>34357</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>528</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7519,13 +7495,13 @@
         <v>60096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7516,13 @@
         <v>47936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -7555,13 +7531,13 @@
         <v>89467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -7570,13 +7546,13 @@
         <v>137403</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,13 +7620,13 @@
         <v>2807</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7659,13 +7635,13 @@
         <v>3717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7674,13 +7650,13 @@
         <v>6525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7671,13 @@
         <v>17498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -7710,13 +7686,13 @@
         <v>27507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -7725,13 +7701,13 @@
         <v>45004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>551</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7775,13 @@
         <v>13200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -7814,13 +7790,13 @@
         <v>16777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -7829,13 +7805,13 @@
         <v>29977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7826,13 @@
         <v>41494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -7865,13 +7841,13 @@
         <v>45774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="M20" s="7">
         <v>144</v>
@@ -7880,13 +7856,13 @@
         <v>87268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7930,13 @@
         <v>40050</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -7969,13 +7945,13 @@
         <v>62578</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -7984,13 +7960,13 @@
         <v>102628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7981,13 @@
         <v>102170</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -8020,13 +7996,13 @@
         <v>148810</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>248</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="M23" s="7">
         <v>326</v>
@@ -8035,13 +8011,13 @@
         <v>250981</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8085,13 @@
         <v>22617</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>587</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -8124,13 +8100,13 @@
         <v>29770</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>598</v>
+        <v>71</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>599</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -8139,13 +8115,13 @@
         <v>52387</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8136,13 @@
         <v>143663</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>593</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="H26" s="7">
         <v>264</v>
@@ -8175,13 +8151,13 @@
         <v>207189</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="M26" s="7">
         <v>412</v>
@@ -8190,13 +8166,13 @@
         <v>350853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8240,13 @@
         <v>160822</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="H28" s="7">
         <v>302</v>
@@ -8279,13 +8255,13 @@
         <v>210012</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>603</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="M28" s="7">
         <v>475</v>
@@ -8294,13 +8270,13 @@
         <v>370834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>607</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8291,13 @@
         <v>505951</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="H29" s="7">
         <v>1048</v>
@@ -8330,13 +8306,13 @@
         <v>711792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>613</v>
       </c>
       <c r="M29" s="7">
         <v>1585</v>
@@ -8345,13 +8321,13 @@
         <v>1217743</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>615</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +8383,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{688EA857-4196-419A-9A9C-4653D29B3AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF8EB27-BD35-4EFD-A0DE-517511E2D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{242A0D33-CD9A-4024-98C4-7C92B8F8DAC0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A85AE463-AFF0-4B27-9AB9-7CA3B77D6D98}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>35,04%</t>
   </si>
   <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,28 +107,28 @@
     <t>64,96%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>18,57%</t>
   </si>
   <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>78,16%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,19 +197,19 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
   </si>
   <si>
     <t>11,27%</t>
@@ -224,19 +224,19 @@
     <t>87,32%</t>
   </si>
   <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>89,49%</t>
   </si>
   <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>88,73%</t>
@@ -254,1579 +254,1627 @@
     <t>18,16%</t>
   </si>
   <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
     <t>8,93%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
   <si>
     <t>91,07%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2015 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
   </si>
   <si>
     <t>87,01%</t>
@@ -2301,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFA4A64-82D8-45AF-8E21-B4FFCE3858A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675245E7-8A09-432B-BEF1-DD5526EB2D4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3516,7 +3564,7 @@
         <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -3525,13 +3573,13 @@
         <v>64019</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3540,13 +3588,13 @@
         <v>102003</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,13 +3609,13 @@
         <v>142063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>178</v>
@@ -3576,13 +3624,13 @@
         <v>187723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>320</v>
@@ -3591,13 +3639,13 @@
         <v>329786</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,13 +3713,13 @@
         <v>130371</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -3680,13 +3728,13 @@
         <v>210854</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -3695,13 +3743,13 @@
         <v>341225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3764,13 @@
         <v>528931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>820</v>
@@ -3731,13 +3779,13 @@
         <v>837516</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>1351</v>
@@ -3746,13 +3794,13 @@
         <v>1366447</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3856,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69B6E20-8EF3-4195-9B2A-B71028691D28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E80541-18F6-4200-94F2-0F8C580D660C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3849,7 +3897,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3954,39 +4002,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,39 +4047,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,39 +4092,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4141,13 @@
         <v>16989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4108,13 +4156,13 @@
         <v>22214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4123,13 +4171,13 @@
         <v>39203</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4192,13 @@
         <v>86732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -4159,13 +4207,13 @@
         <v>132153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -4174,13 +4222,13 @@
         <v>218885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4296,13 @@
         <v>16021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -4263,13 +4311,13 @@
         <v>20962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4278,13 +4326,13 @@
         <v>36983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4347,13 @@
         <v>70306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -4314,13 +4362,13 @@
         <v>122343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -4329,13 +4377,13 @@
         <v>192650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,13 +4451,13 @@
         <v>34453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4418,13 +4466,13 @@
         <v>37890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4433,13 +4481,13 @@
         <v>72343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4454,13 +4502,13 @@
         <v>98187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -4469,13 +4517,13 @@
         <v>171636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
@@ -4484,13 +4532,13 @@
         <v>269823</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,13 +4606,13 @@
         <v>9250</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4573,13 +4621,13 @@
         <v>19119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4588,13 +4636,13 @@
         <v>28369</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,13 +4657,13 @@
         <v>42742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -4624,13 +4672,13 @@
         <v>71921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4639,13 +4687,13 @@
         <v>114663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4761,13 @@
         <v>18121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4728,13 +4776,13 @@
         <v>17406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4743,13 +4791,13 @@
         <v>35528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4812,13 @@
         <v>62714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>88</v>
@@ -4779,13 +4827,13 @@
         <v>92606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -4794,13 +4842,13 @@
         <v>155319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4916,13 @@
         <v>36370</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -4883,13 +4931,13 @@
         <v>53868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4898,13 +4946,13 @@
         <v>90238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4967,13 @@
         <v>131674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -4934,13 +4982,13 @@
         <v>168239</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>270</v>
@@ -4949,13 +4997,13 @@
         <v>299913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5071,13 @@
         <v>31884</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -5038,13 +5086,13 @@
         <v>41848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -5053,13 +5101,13 @@
         <v>73732</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5122,13 @@
         <v>124696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -5089,13 +5137,13 @@
         <v>181259</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -5104,13 +5152,13 @@
         <v>305955</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>121</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5226,13 @@
         <v>163088</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -5193,13 +5241,13 @@
         <v>213308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>354</v>
@@ -5208,13 +5256,13 @@
         <v>376396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5277,13 @@
         <v>617052</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>872</v>
@@ -5321,7 +5369,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5345,7 +5393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C42565-23CA-4440-A3AB-1E6CE6BAB55A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A7D7B8-58F2-4C23-83B6-46CB088B0238}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5940,7 +5988,7 @@
         <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5949,13 +5997,13 @@
         <v>31330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5964,13 +6012,13 @@
         <v>47895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +6033,13 @@
         <v>70842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -6000,13 +6048,13 @@
         <v>105000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -6015,13 +6063,13 @@
         <v>175841</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6137,13 @@
         <v>2814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6104,13 +6152,13 @@
         <v>8625</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6119,13 +6167,13 @@
         <v>11440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>401</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6188,13 @@
         <v>27418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -6155,13 +6203,13 @@
         <v>43125</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -6170,13 +6218,13 @@
         <v>70542</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>411</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,10 +6325,10 @@
         <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6343,13 @@
         <v>96637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -6310,13 +6358,13 @@
         <v>110493</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>200</v>
@@ -6325,13 +6373,13 @@
         <v>207130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,13 +6447,13 @@
         <v>30701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -6414,13 +6462,13 @@
         <v>40306</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -6429,13 +6477,13 @@
         <v>71008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>434</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6498,13 @@
         <v>119327</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -6465,13 +6513,13 @@
         <v>146094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>440</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>238</v>
@@ -6480,13 +6528,13 @@
         <v>265420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>443</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,13 +6602,13 @@
         <v>44443</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -6587,10 +6635,10 @@
         <v>449</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>114</v>
+        <v>450</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6653,13 @@
         <v>179825</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>233</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -6620,13 +6668,13 @@
         <v>225895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>373</v>
@@ -6635,13 +6683,13 @@
         <v>405720</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>123</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6709,13 +6757,13 @@
         <v>155952</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>146</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>204</v>
@@ -6724,13 +6772,13 @@
         <v>220884</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>350</v>
@@ -6739,13 +6787,13 @@
         <v>376835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6808,13 @@
         <v>695682</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>154</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>873</v>
@@ -6775,13 +6823,13 @@
         <v>943436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>1539</v>
@@ -6790,13 +6838,13 @@
         <v>1639118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6900,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +6924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E0A5EE-B38B-4A10-9CBB-F29ED9EB3AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2DD95-9CA1-4CBE-8CAD-75304B17A2D0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6893,7 +6941,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7000,13 +7048,13 @@
         <v>11466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -7015,13 +7063,13 @@
         <v>19764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -7030,13 +7078,13 @@
         <v>31230</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7051,13 +7099,13 @@
         <v>48015</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -7066,13 +7114,13 @@
         <v>51119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>152</v>
@@ -7081,13 +7129,13 @@
         <v>99134</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,13 +7203,13 @@
         <v>28720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -7170,13 +7218,13 @@
         <v>19828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -7185,13 +7233,13 @@
         <v>48547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>503</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7254,13 @@
         <v>56338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="H8" s="7">
         <v>111</v>
@@ -7221,13 +7269,13 @@
         <v>84234</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="M8" s="7">
         <v>157</v>
@@ -7236,13 +7284,13 @@
         <v>140573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>505</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7358,13 @@
         <v>16224</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>450</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -7325,13 +7373,13 @@
         <v>23220</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>516</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -7340,13 +7388,13 @@
         <v>39444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7409,13 @@
         <v>48835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -7376,13 +7424,13 @@
         <v>57693</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>140</v>
+        <v>525</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -7391,13 +7439,13 @@
         <v>106528</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7513,13 @@
         <v>25739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -7480,13 +7528,13 @@
         <v>34357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>526</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7495,13 +7543,13 @@
         <v>60096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>535</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7564,13 @@
         <v>47936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -7531,13 +7579,13 @@
         <v>89467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>534</v>
+        <v>394</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -7546,13 +7594,13 @@
         <v>137403</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7668,13 @@
         <v>2807</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>349</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7635,13 +7683,13 @@
         <v>3717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7650,13 +7698,13 @@
         <v>6525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7719,13 @@
         <v>17498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -7686,13 +7734,13 @@
         <v>27507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -7701,13 +7749,13 @@
         <v>45004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7823,13 @@
         <v>13200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -7790,13 +7838,13 @@
         <v>16777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>277</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -7805,13 +7853,13 @@
         <v>29977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>568</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7874,13 @@
         <v>41494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -7841,13 +7889,13 @@
         <v>45774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>566</v>
+        <v>287</v>
       </c>
       <c r="M20" s="7">
         <v>144</v>
@@ -7856,13 +7904,13 @@
         <v>87268</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7978,13 @@
         <v>40050</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -7945,13 +7993,13 @@
         <v>62578</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>240</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -7960,13 +8008,13 @@
         <v>102628</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +8029,13 @@
         <v>102170</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -7996,13 +8044,13 @@
         <v>148810</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>248</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>326</v>
@@ -8011,13 +8059,13 @@
         <v>250981</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,13 +8133,13 @@
         <v>22617</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -8100,13 +8148,13 @@
         <v>29770</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>71</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>461</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -8115,13 +8163,13 @@
         <v>52387</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8136,13 +8184,13 @@
         <v>143663</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>264</v>
@@ -8151,13 +8199,13 @@
         <v>207189</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>470</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>81</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>412</v>
@@ -8166,13 +8214,13 @@
         <v>350853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8240,13 +8288,13 @@
         <v>160822</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>599</v>
+        <v>615</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>600</v>
+        <v>616</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="H28" s="7">
         <v>302</v>
@@ -8255,13 +8303,13 @@
         <v>210012</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="M28" s="7">
         <v>475</v>
@@ -8270,13 +8318,13 @@
         <v>370834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8291,13 +8339,13 @@
         <v>505951</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="H29" s="7">
         <v>1048</v>
@@ -8306,13 +8354,13 @@
         <v>711792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="M29" s="7">
         <v>1585</v>
@@ -8321,13 +8369,13 @@
         <v>1217743</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,7 +8431,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBF8EB27-BD35-4EFD-A0DE-517511E2D0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{117C5892-07DA-4BF5-8E88-999BEC36BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A85AE463-AFF0-4B27-9AB9-7CA3B77D6D98}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7639A06-D948-4123-9F01-41A1CEE4525B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>35,04%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
   </si>
   <si>
     <t>29,05%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>31,61%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
   </si>
   <si>
     <t>Médico general</t>
@@ -107,28 +107,28 @@
     <t>64,96%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>70,95%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
   <si>
     <t>68,39%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>18,57%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>29,3%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>81,43%</t>
   </si>
   <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>12,68%</t>
   </si>
   <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>89,49%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>18,16%</t>
   </si>
   <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
   </si>
   <si>
     <t>13,7%</t>
   </si>
   <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
   </si>
   <si>
     <t>15,06%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>81,84%</t>
   </si>
   <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>86,3%</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>84,94%</t>
   </si>
   <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,55 +311,55 @@
     <t>17,04%</t>
   </si>
   <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
   </si>
   <si>
     <t>20,99%</t>
   </si>
   <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
   </si>
   <si>
     <t>79,01%</t>
   </si>
   <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,55 +368,55 @@
     <t>16,66%</t>
   </si>
   <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>15,49%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>84,51%</t>
   </si>
   <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>84,11%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -425,1501 +425,1483 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>12,14%</t>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
   </si>
   <si>
     <t>25,67%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>74,33%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2016 (Tasa respuesta: 28,76%)</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
     <t>74,43%</t>
   </si>
   <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>29,6%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
   </si>
   <si>
     <t>29,02%</t>
   </si>
   <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
   </si>
   <si>
     <t>70,4%</t>
   </si>
   <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>70,98%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>8,73%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>12,99%</t>
   </si>
   <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>86,4%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
+    <t>91,27%</t>
   </si>
   <si>
     <t>87,44%</t>
   </si>
   <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>87,01%</t>
   </si>
   <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
     <t>25,52%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>21,29%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
   </si>
   <si>
     <t>77,22%</t>
@@ -1928,16 +1910,10 @@
     <t>74,48%</t>
   </si>
   <si>
-    <t>79,84%</t>
-  </si>
-  <si>
     <t>76,66%</t>
   </si>
   <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>78,71%</t>
   </si>
 </sst>
 </file>
@@ -2349,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675245E7-8A09-432B-BEF1-DD5526EB2D4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CC5BF-1B22-4DCB-B893-3171E714B7AC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3579,7 +3555,7 @@
         <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="M25" s="7">
         <v>95</v>
@@ -3588,13 +3564,13 @@
         <v>102003</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3585,13 @@
         <v>142063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>178</v>
@@ -3624,13 +3600,13 @@
         <v>187723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>320</v>
@@ -3639,13 +3615,13 @@
         <v>329786</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>29</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3689,13 @@
         <v>130371</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -3728,13 +3704,13 @@
         <v>210854</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>332</v>
@@ -3743,13 +3719,13 @@
         <v>341225</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3740,13 @@
         <v>528931</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="H29" s="7">
         <v>820</v>
@@ -3779,13 +3755,13 @@
         <v>837516</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>1351</v>
@@ -3794,13 +3770,13 @@
         <v>1366447</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,7 +3832,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3880,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E80541-18F6-4200-94F2-0F8C580D660C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E98BD8B-0165-4C14-A082-840A04204507}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3897,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4002,39 +3978,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,39 +4023,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,39 +4068,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4117,13 @@
         <v>16989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4156,13 +4132,13 @@
         <v>22214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4171,13 +4147,13 @@
         <v>39203</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4168,13 @@
         <v>86732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -4207,13 +4183,13 @@
         <v>132153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -4222,13 +4198,13 @@
         <v>218885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,28 +4272,28 @@
         <v>16021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>20962</v>
+        <v>20963</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4326,13 +4302,13 @@
         <v>36983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,13 +4323,13 @@
         <v>70306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -4362,13 +4338,13 @@
         <v>122343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -4377,13 +4353,13 @@
         <v>192650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,7 +4386,7 @@
         <v>135</v>
       </c>
       <c r="I12" s="7">
-        <v>143305</v>
+        <v>143306</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4451,13 +4427,13 @@
         <v>34453</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -4466,13 +4442,13 @@
         <v>37890</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -4481,13 +4457,13 @@
         <v>72343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4478,13 @@
         <v>98187</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>159</v>
@@ -4517,28 +4493,28 @@
         <v>171636</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="M14" s="7">
         <v>249</v>
       </c>
       <c r="N14" s="7">
-        <v>269823</v>
+        <v>269824</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,7 +4556,7 @@
         <v>319</v>
       </c>
       <c r="N15" s="7">
-        <v>342166</v>
+        <v>342167</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4606,13 +4582,13 @@
         <v>9250</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4621,13 +4597,13 @@
         <v>19119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4636,13 +4612,13 @@
         <v>28369</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4633,13 @@
         <v>42742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -4672,13 +4648,13 @@
         <v>71921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4687,13 +4663,13 @@
         <v>114663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4737,13 @@
         <v>18121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4776,13 +4752,13 @@
         <v>17406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4791,13 +4767,13 @@
         <v>35528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4788,13 @@
         <v>62714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>88</v>
@@ -4827,13 +4803,13 @@
         <v>92606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -4842,13 +4818,13 @@
         <v>155319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4916,13 +4892,13 @@
         <v>36370</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -4931,13 +4907,13 @@
         <v>53868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4946,13 +4922,13 @@
         <v>90238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4943,13 @@
         <v>131674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -4982,13 +4958,13 @@
         <v>168239</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>270</v>
@@ -4997,13 +4973,13 @@
         <v>299913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5047,13 @@
         <v>31884</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -5086,13 +5062,13 @@
         <v>41848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -5101,13 +5077,13 @@
         <v>73732</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5098,13 @@
         <v>124696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -5137,13 +5113,13 @@
         <v>181259</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -5152,13 +5128,13 @@
         <v>305955</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>299</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5202,13 @@
         <v>163088</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>135</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>171</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -5241,13 +5217,13 @@
         <v>213308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>354</v>
@@ -5256,13 +5232,13 @@
         <v>376396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5253,13 @@
         <v>617052</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>181</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>872</v>
@@ -5292,13 +5268,13 @@
         <v>940156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>1437</v>
@@ -5307,13 +5283,13 @@
         <v>1557208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5345,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5393,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A7D7B8-58F2-4C23-83B6-46CB088B0238}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3738F63-CCBE-4E7B-9ADA-4E7A68D45693}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5410,7 +5386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5517,13 +5493,13 @@
         <v>19441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5532,13 +5508,13 @@
         <v>20815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -5547,13 +5523,13 @@
         <v>40256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5544,13 @@
         <v>48321</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -5583,13 +5559,13 @@
         <v>72885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>115</v>
@@ -5598,13 +5574,13 @@
         <v>121205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5648,13 @@
         <v>20078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5687,13 +5663,13 @@
         <v>33814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5702,13 +5678,13 @@
         <v>53891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5699,13 @@
         <v>90589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -5738,13 +5714,13 @@
         <v>147949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -5753,13 +5729,13 @@
         <v>238539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5803,13 @@
         <v>11642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5842,13 +5818,13 @@
         <v>12257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5857,13 +5833,13 @@
         <v>23898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5854,13 @@
         <v>62725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -5893,13 +5869,13 @@
         <v>91996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>156</v>
@@ -5908,13 +5884,13 @@
         <v>154721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5982,13 +5958,13 @@
         <v>16565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5997,13 +5973,13 @@
         <v>31330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -6012,13 +5988,13 @@
         <v>47895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,13 +6009,13 @@
         <v>70842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>97</v>
@@ -6048,13 +6024,13 @@
         <v>105000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -6063,13 +6039,13 @@
         <v>175841</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6113,13 @@
         <v>2814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6152,13 +6128,13 @@
         <v>8625</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6167,13 +6143,13 @@
         <v>11440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6188,13 +6164,13 @@
         <v>27418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -6203,13 +6179,13 @@
         <v>43125</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -6218,13 +6194,13 @@
         <v>70542</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6268,13 @@
         <v>10268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6307,13 +6283,13 @@
         <v>19884</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -6322,13 +6298,13 @@
         <v>30152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6319,13 @@
         <v>96637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -6358,13 +6334,13 @@
         <v>110493</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>200</v>
@@ -6373,13 +6349,13 @@
         <v>207130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6447,13 +6423,13 @@
         <v>30701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -6462,13 +6438,13 @@
         <v>40306</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -6477,13 +6453,13 @@
         <v>71008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6498,13 +6474,13 @@
         <v>119327</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -6513,13 +6489,13 @@
         <v>146094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>238</v>
@@ -6528,13 +6504,13 @@
         <v>265420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,13 +6578,13 @@
         <v>44443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -6617,13 +6593,13 @@
         <v>53853</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -6632,13 +6608,13 @@
         <v>98296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,13 +6629,13 @@
         <v>179825</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -6668,13 +6644,13 @@
         <v>225895</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>373</v>
@@ -6683,13 +6659,13 @@
         <v>405720</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6733,13 @@
         <v>155952</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>373</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>204</v>
@@ -6772,28 +6748,28 @@
         <v>220884</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>350</v>
       </c>
       <c r="N28" s="7">
-        <v>376835</v>
+        <v>376836</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6784,13 @@
         <v>695682</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>382</v>
       </c>
       <c r="H29" s="7">
         <v>873</v>
@@ -6823,13 +6799,13 @@
         <v>943436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>1539</v>
@@ -6838,13 +6814,13 @@
         <v>1639118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6886,7 +6862,7 @@
         <v>1889</v>
       </c>
       <c r="N30" s="7">
-        <v>2015953</v>
+        <v>2015954</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6900,7 +6876,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6924,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D2DD95-9CA1-4CBE-8CAD-75304B17A2D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CC64B4-3577-420A-8F98-095C4F4BF621}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6941,7 +6917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7048,13 +7024,13 @@
         <v>11466</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
@@ -7063,13 +7039,13 @@
         <v>19764</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -7078,13 +7054,13 @@
         <v>31230</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7075,13 @@
         <v>48015</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
@@ -7114,13 +7090,13 @@
         <v>51119</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="M5" s="7">
         <v>152</v>
@@ -7129,13 +7105,13 @@
         <v>99134</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7203,13 +7179,13 @@
         <v>28720</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -7218,13 +7194,13 @@
         <v>19828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>500</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
@@ -7233,13 +7209,13 @@
         <v>48547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>129</v>
+        <v>496</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7254,13 +7230,13 @@
         <v>56338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H8" s="7">
         <v>111</v>
@@ -7269,13 +7245,13 @@
         <v>84234</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>508</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>157</v>
@@ -7284,13 +7260,13 @@
         <v>140573</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7358,13 +7334,13 @@
         <v>16224</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -7373,13 +7349,13 @@
         <v>23220</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -7388,13 +7364,13 @@
         <v>39444</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7409,13 +7385,13 @@
         <v>48835</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
@@ -7424,13 +7400,13 @@
         <v>57693</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
@@ -7439,13 +7415,13 @@
         <v>106528</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7513,13 +7489,13 @@
         <v>25739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
@@ -7528,13 +7504,13 @@
         <v>34357</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
@@ -7543,13 +7519,13 @@
         <v>60096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7564,13 +7540,13 @@
         <v>47936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
@@ -7579,13 +7555,13 @@
         <v>89467</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -7594,13 +7570,13 @@
         <v>137403</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7668,13 +7644,13 @@
         <v>2807</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -7683,13 +7659,13 @@
         <v>3717</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7698,13 +7674,13 @@
         <v>6525</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>553</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7719,13 +7695,13 @@
         <v>17498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -7734,13 +7710,13 @@
         <v>27507</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
@@ -7749,13 +7725,13 @@
         <v>45004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7823,13 +7799,13 @@
         <v>13200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -7838,13 +7814,13 @@
         <v>16777</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>277</v>
+        <v>563</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -7853,13 +7829,13 @@
         <v>29977</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7874,13 +7850,13 @@
         <v>41494</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
@@ -7889,13 +7865,13 @@
         <v>45774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>287</v>
+        <v>573</v>
       </c>
       <c r="M20" s="7">
         <v>144</v>
@@ -7904,13 +7880,13 @@
         <v>87268</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7978,13 +7954,13 @@
         <v>40050</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
@@ -7993,13 +7969,13 @@
         <v>62578</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
@@ -8008,13 +7984,13 @@
         <v>102628</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>585</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8029,13 +8005,13 @@
         <v>102170</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>590</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
@@ -8044,13 +8020,13 @@
         <v>148810</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>326</v>
@@ -8059,13 +8035,13 @@
         <v>250981</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8133,13 +8109,13 @@
         <v>22617</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>446</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -8148,13 +8124,13 @@
         <v>29770</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -8163,13 +8139,13 @@
         <v>52387</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8184,13 +8160,13 @@
         <v>143663</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="H26" s="7">
         <v>264</v>
@@ -8199,13 +8175,13 @@
         <v>207189</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M26" s="7">
         <v>412</v>
@@ -8214,13 +8190,13 @@
         <v>350853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,13 +8264,13 @@
         <v>160822</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="H28" s="7">
         <v>302</v>
@@ -8303,13 +8279,13 @@
         <v>210012</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>619</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M28" s="7">
         <v>475</v>
@@ -8318,13 +8294,13 @@
         <v>370834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>623</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8339,13 +8315,13 @@
         <v>505951</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="H29" s="7">
         <v>1048</v>
@@ -8354,13 +8330,13 @@
         <v>711792</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>629</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>1585</v>
@@ -8369,13 +8345,13 @@
         <v>1217743</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>631</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8431,7 +8407,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P17E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{117C5892-07DA-4BF5-8E88-999BEC36BDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88924D9-9B0E-4A55-A550-19D960D981A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7639A06-D948-4123-9F01-41A1CEE4525B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{41A3AA32-6A4D-4D68-8A1C-6184ADBF7923}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="632">
   <si>
     <t>Población según era el médico al que consultó en la última visita en 2007 (Tasa respuesta: 25,85%)</t>
   </si>
@@ -563,7 +563,52 @@
     <t>Población según era el médico al que consultó en la última visita en 2012 (Tasa respuesta: 27,52%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>16,38%</t>
@@ -674,58 +719,52 @@
     <t>88,64%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>17,79%</t>
@@ -1115,9 +1154,6 @@
     <t>18,48%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
     <t>9,1%</t>
   </si>
   <si>
@@ -1142,9 +1178,6 @@
     <t>93,69%</t>
   </si>
   <si>
-    <t>86,62%</t>
-  </si>
-  <si>
     <t>81,21%</t>
   </si>
   <si>
@@ -1466,454 +1499,442 @@
     <t>Población según era el médico al que consultó en la última visita en 2023 (Tasa respuesta: 23,56%)</t>
   </si>
   <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>28,7%</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>71,3%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783CC5BF-1B22-4DCB-B893-3171E714B7AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32170B9C-5348-4842-B4C6-2DE526C9074F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3856,7 +3877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E98BD8B-0165-4C14-A082-840A04204507}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7102C901-7319-4642-AC21-8599FE44133B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3974,43 +3995,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>18137</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13840</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="N4" s="7">
+        <v>31977</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,43 +4046,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43627</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="I5" s="7">
+        <v>81861</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="N5" s="7">
+        <v>125488</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,43 +4097,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D6" s="7">
+        <v>61764</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="I6" s="7">
+        <v>95701</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="N6" s="7">
+        <v>157465</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4156,13 @@
         <v>16989</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
@@ -4132,13 +4171,13 @@
         <v>22214</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -4147,13 +4186,13 @@
         <v>39203</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4207,13 @@
         <v>86732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>121</v>
@@ -4183,13 +4222,13 @@
         <v>132153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>198</v>
@@ -4198,13 +4237,13 @@
         <v>218885</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,28 +4311,28 @@
         <v>16021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>20963</v>
+        <v>20962</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -4302,13 +4341,13 @@
         <v>36983</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4362,13 @@
         <v>70306</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>116</v>
@@ -4338,13 +4377,13 @@
         <v>122343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>184</v>
@@ -4353,13 +4392,13 @@
         <v>192650</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,7 +4425,7 @@
         <v>135</v>
       </c>
       <c r="I12" s="7">
-        <v>143306</v>
+        <v>143305</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4421,49 +4460,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D13" s="7">
-        <v>34453</v>
+        <v>16316</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I13" s="7">
-        <v>37890</v>
+        <v>24051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>72343</v>
+        <v>40367</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,49 +4511,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>98187</v>
+        <v>54560</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="I14" s="7">
-        <v>171636</v>
+        <v>89774</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="N14" s="7">
-        <v>269824</v>
+        <v>144335</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,10 +4562,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="D15" s="7">
-        <v>132640</v>
+        <v>70876</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4538,10 +4577,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="I15" s="7">
-        <v>209526</v>
+        <v>113825</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4553,10 +4592,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>319</v>
+        <v>174</v>
       </c>
       <c r="N15" s="7">
-        <v>342167</v>
+        <v>184702</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4582,13 +4621,13 @@
         <v>9250</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -4597,13 +4636,13 @@
         <v>19119</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
@@ -4612,13 +4651,13 @@
         <v>28369</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4672,13 @@
         <v>42742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>70</v>
@@ -4648,13 +4687,13 @@
         <v>71921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>109</v>
@@ -4663,13 +4702,13 @@
         <v>114663</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4776,13 @@
         <v>18121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -4752,13 +4791,13 @@
         <v>17406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -4767,13 +4806,13 @@
         <v>35528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4827,13 @@
         <v>62714</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>88</v>
@@ -4803,13 +4842,13 @@
         <v>92606</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>148</v>
@@ -4818,13 +4857,13 @@
         <v>155319</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4931,13 @@
         <v>36370</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>51</v>
@@ -4907,13 +4946,13 @@
         <v>53868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4922,13 +4961,13 @@
         <v>90238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4982,13 @@
         <v>131674</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>151</v>
@@ -4958,13 +4997,13 @@
         <v>168239</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>270</v>
@@ -4973,13 +5012,13 @@
         <v>299913</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5086,13 @@
         <v>31884</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -5062,13 +5101,13 @@
         <v>41848</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>67</v>
@@ -5077,13 +5116,13 @@
         <v>73732</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5137,13 @@
         <v>124696</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>167</v>
@@ -5113,13 +5152,13 @@
         <v>181259</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>279</v>
@@ -5128,13 +5167,13 @@
         <v>305955</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,10 +5244,10 @@
         <v>135</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>202</v>
@@ -5217,13 +5256,13 @@
         <v>213308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>354</v>
@@ -5232,13 +5271,13 @@
         <v>376396</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,10 +5295,10 @@
         <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="H29" s="7">
         <v>872</v>
@@ -5268,13 +5307,13 @@
         <v>940156</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>1437</v>
@@ -5283,13 +5322,13 @@
         <v>1557208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,7 +5408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3738F63-CCBE-4E7B-9ADA-4E7A68D45693}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E39B137E-7F2F-4EF2-ABA7-FF8343166A52}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5532,13 @@
         <v>19441</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5508,13 +5547,13 @@
         <v>20815</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -5523,13 +5562,13 @@
         <v>40256</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5583,13 @@
         <v>48321</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>71</v>
@@ -5559,13 +5598,13 @@
         <v>72885</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>115</v>
@@ -5574,13 +5613,13 @@
         <v>121205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5687,13 @@
         <v>20078</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>31</v>
@@ -5663,13 +5702,13 @@
         <v>33814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -5678,13 +5717,13 @@
         <v>53891</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5738,13 @@
         <v>90589</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>133</v>
@@ -5714,13 +5753,13 @@
         <v>147949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>218</v>
@@ -5729,13 +5768,13 @@
         <v>238539</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5842,13 @@
         <v>11642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -5818,13 +5857,13 @@
         <v>12257</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -5833,13 +5872,13 @@
         <v>23898</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5893,13 @@
         <v>62725</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H11" s="7">
         <v>90</v>
@@ -5869,13 +5908,13 @@
         <v>91996</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M11" s="7">
         <v>156</v>
@@ -5884,13 +5923,13 @@
         <v>154721</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>236</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5997,13 @@
         <v>16565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -5973,13 +6012,13 @@
         <v>31330</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -5988,13 +6027,13 @@
         <v>47895</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,10 +6048,10 @@
         <v>70842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>66</v>
@@ -6024,13 +6063,13 @@
         <v>105000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
@@ -6039,13 +6078,13 @@
         <v>175841</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6152,13 @@
         <v>2814</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6128,13 +6167,13 @@
         <v>8625</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6143,13 +6182,13 @@
         <v>11440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6203,13 @@
         <v>27418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -6179,13 +6218,13 @@
         <v>43125</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -6194,13 +6233,13 @@
         <v>70542</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6307,13 @@
         <v>10268</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6283,13 +6322,13 @@
         <v>19884</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -6298,13 +6337,13 @@
         <v>30152</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6358,13 @@
         <v>96637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>106</v>
@@ -6334,13 +6373,13 @@
         <v>110493</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>200</v>
@@ -6349,13 +6388,13 @@
         <v>207130</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6462,13 @@
         <v>30701</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -6438,13 +6477,13 @@
         <v>40306</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -6453,13 +6492,13 @@
         <v>71008</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6513,13 @@
         <v>119327</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>131</v>
@@ -6489,13 +6528,13 @@
         <v>146094</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>238</v>
@@ -6504,13 +6543,13 @@
         <v>265420</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6617,13 @@
         <v>44443</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>47</v>
@@ -6593,13 +6632,13 @@
         <v>53853</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>90</v>
@@ -6608,13 +6647,13 @@
         <v>98296</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6668,13 @@
         <v>179825</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="H26" s="7">
         <v>202</v>
@@ -6644,13 +6683,13 @@
         <v>225895</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M26" s="7">
         <v>373</v>
@@ -6659,13 +6698,13 @@
         <v>405720</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6772,13 @@
         <v>155952</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>204</v>
@@ -6748,28 +6787,28 @@
         <v>220884</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
         <v>350</v>
       </c>
       <c r="N28" s="7">
-        <v>376836</v>
+        <v>376835</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6823,13 @@
         <v>695682</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="H29" s="7">
         <v>873</v>
@@ -6799,13 +6838,13 @@
         <v>943436</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>1539</v>
@@ -6814,13 +6853,13 @@
         <v>1639118</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6862,7 +6901,7 @@
         <v>1889</v>
       </c>
       <c r="N30" s="7">
-        <v>2015954</v>
+        <v>2015953</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6900,7 +6939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CC64B4-3577-420A-8F98-095C4F4BF621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B3512A-367E-4021-B110-670E98B9DFF6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7021,46 +7060,46 @@
         <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>11466</v>
+        <v>12798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>40</v>
       </c>
       <c r="I4" s="7">
-        <v>19764</v>
+        <v>20524</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>31230</v>
+        <v>33322</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>492</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7072,46 +7111,46 @@
         <v>56</v>
       </c>
       <c r="D5" s="7">
-        <v>48015</v>
+        <v>57398</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>96</v>
       </c>
       <c r="I5" s="7">
-        <v>51119</v>
+        <v>54733</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>488</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>152</v>
       </c>
       <c r="N5" s="7">
-        <v>99134</v>
+        <v>112131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>349</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7123,7 +7162,7 @@
         <v>72</v>
       </c>
       <c r="D6" s="7">
-        <v>59481</v>
+        <v>70196</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7138,7 +7177,7 @@
         <v>136</v>
       </c>
       <c r="I6" s="7">
-        <v>70883</v>
+        <v>75257</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7153,7 +7192,7 @@
         <v>208</v>
       </c>
       <c r="N6" s="7">
-        <v>130364</v>
+        <v>145453</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7176,46 +7215,46 @@
         <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>28720</v>
+        <v>27260</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>19828</v>
+        <v>18183</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>504</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
         <v>48</v>
       </c>
       <c r="N7" s="7">
-        <v>48547</v>
+        <v>45443</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7227,46 +7266,46 @@
         <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>56338</v>
+        <v>54977</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>501</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>111</v>
       </c>
       <c r="I8" s="7">
-        <v>84234</v>
+        <v>78470</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>512</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="M8" s="7">
         <v>157</v>
       </c>
       <c r="N8" s="7">
-        <v>140573</v>
+        <v>133447</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7278,7 +7317,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="7">
-        <v>85058</v>
+        <v>82237</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7293,7 +7332,7 @@
         <v>135</v>
       </c>
       <c r="I9" s="7">
-        <v>104062</v>
+        <v>96653</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7308,7 +7347,7 @@
         <v>205</v>
       </c>
       <c r="N9" s="7">
-        <v>189120</v>
+        <v>178890</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7331,46 +7370,46 @@
         <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>16224</v>
+        <v>15822</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>23220</v>
+        <v>21733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
       </c>
       <c r="N10" s="7">
-        <v>39444</v>
+        <v>37554</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7382,46 +7421,46 @@
         <v>58</v>
       </c>
       <c r="D11" s="7">
-        <v>48835</v>
+        <v>47484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
         <v>88</v>
       </c>
       <c r="I11" s="7">
-        <v>57693</v>
+        <v>54047</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="M11" s="7">
         <v>146</v>
       </c>
       <c r="N11" s="7">
-        <v>106528</v>
+        <v>101532</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7433,7 +7472,7 @@
         <v>76</v>
       </c>
       <c r="D12" s="7">
-        <v>65059</v>
+        <v>63306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7448,7 +7487,7 @@
         <v>120</v>
       </c>
       <c r="I12" s="7">
-        <v>80913</v>
+        <v>75780</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7463,7 +7502,7 @@
         <v>196</v>
       </c>
       <c r="N12" s="7">
-        <v>145972</v>
+        <v>139086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7486,46 +7525,46 @@
         <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>25739</v>
+        <v>24705</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="H13" s="7">
         <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>34357</v>
+        <v>31537</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="M13" s="7">
         <v>74</v>
       </c>
       <c r="N13" s="7">
-        <v>60096</v>
+        <v>56241</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,46 +7576,46 @@
         <v>46</v>
       </c>
       <c r="D14" s="7">
-        <v>47936</v>
+        <v>45559</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>121</v>
       </c>
       <c r="I14" s="7">
-        <v>89467</v>
+        <v>138309</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="M14" s="7">
         <v>167</v>
       </c>
       <c r="N14" s="7">
-        <v>137403</v>
+        <v>183869</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7627,7 @@
         <v>75</v>
       </c>
       <c r="D15" s="7">
-        <v>73675</v>
+        <v>70264</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7603,7 +7642,7 @@
         <v>166</v>
       </c>
       <c r="I15" s="7">
-        <v>123824</v>
+        <v>169846</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7618,7 +7657,7 @@
         <v>241</v>
       </c>
       <c r="N15" s="7">
-        <v>197499</v>
+        <v>240110</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7641,46 +7680,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>2807</v>
+        <v>2564</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>3717</v>
+        <v>3275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
       </c>
       <c r="N16" s="7">
-        <v>6525</v>
+        <v>5839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>558</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,46 +7731,46 @@
         <v>23</v>
       </c>
       <c r="D17" s="7">
-        <v>17498</v>
+        <v>15679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
       </c>
       <c r="I17" s="7">
-        <v>27507</v>
+        <v>25002</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="M17" s="7">
         <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>45004</v>
+        <v>40681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>313</v>
+        <v>566</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7743,7 +7782,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>20305</v>
+        <v>18243</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7758,7 +7797,7 @@
         <v>65</v>
       </c>
       <c r="I18" s="7">
-        <v>31224</v>
+        <v>28277</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7773,7 +7812,7 @@
         <v>92</v>
       </c>
       <c r="N18" s="7">
-        <v>51529</v>
+        <v>46520</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7796,46 +7835,46 @@
         <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>13200</v>
+        <v>12715</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
       </c>
       <c r="I19" s="7">
-        <v>16777</v>
+        <v>15636</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
       </c>
       <c r="N19" s="7">
-        <v>29977</v>
+        <v>28351</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,46 +7886,46 @@
         <v>59</v>
       </c>
       <c r="D20" s="7">
-        <v>41494</v>
+        <v>40171</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="H20" s="7">
         <v>85</v>
       </c>
       <c r="I20" s="7">
-        <v>45774</v>
+        <v>42750</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="M20" s="7">
         <v>144</v>
       </c>
       <c r="N20" s="7">
-        <v>87268</v>
+        <v>82922</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>345</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,7 +7937,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="7">
-        <v>54694</v>
+        <v>52886</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7913,7 +7952,7 @@
         <v>112</v>
       </c>
       <c r="I21" s="7">
-        <v>62551</v>
+        <v>58386</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7928,7 +7967,7 @@
         <v>191</v>
       </c>
       <c r="N21" s="7">
-        <v>117245</v>
+        <v>111273</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7951,46 +7990,46 @@
         <v>39</v>
       </c>
       <c r="D22" s="7">
-        <v>40050</v>
+        <v>38680</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="H22" s="7">
         <v>88</v>
       </c>
       <c r="I22" s="7">
-        <v>62578</v>
+        <v>57692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>127</v>
       </c>
       <c r="N22" s="7">
-        <v>102628</v>
+        <v>96372</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,46 +8041,46 @@
         <v>101</v>
       </c>
       <c r="D23" s="7">
-        <v>102170</v>
+        <v>101339</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="H23" s="7">
         <v>225</v>
       </c>
       <c r="I23" s="7">
-        <v>148810</v>
+        <v>138110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>498</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="M23" s="7">
         <v>326</v>
       </c>
       <c r="N23" s="7">
-        <v>250981</v>
+        <v>239448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,7 +8092,7 @@
         <v>140</v>
       </c>
       <c r="D24" s="7">
-        <v>142220</v>
+        <v>140019</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8068,7 +8107,7 @@
         <v>313</v>
       </c>
       <c r="I24" s="7">
-        <v>211388</v>
+        <v>195802</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8083,7 +8122,7 @@
         <v>453</v>
       </c>
       <c r="N24" s="7">
-        <v>353609</v>
+        <v>335820</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8106,46 +8145,46 @@
         <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>22617</v>
+        <v>19257</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
       </c>
       <c r="I25" s="7">
-        <v>29770</v>
+        <v>25013</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
       </c>
       <c r="N25" s="7">
-        <v>52387</v>
+        <v>44270</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,46 +8196,46 @@
         <v>148</v>
       </c>
       <c r="D26" s="7">
-        <v>143663</v>
+        <v>122420</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>603</v>
+        <v>361</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>455</v>
+        <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>264</v>
       </c>
       <c r="I26" s="7">
-        <v>207189</v>
+        <v>170824</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="M26" s="7">
         <v>412</v>
       </c>
       <c r="N26" s="7">
-        <v>350853</v>
+        <v>293244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,7 +8247,7 @@
         <v>171</v>
       </c>
       <c r="D27" s="7">
-        <v>166280</v>
+        <v>141677</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8223,7 +8262,7 @@
         <v>303</v>
       </c>
       <c r="I27" s="7">
-        <v>236959</v>
+        <v>195837</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8238,7 +8277,7 @@
         <v>474</v>
       </c>
       <c r="N27" s="7">
-        <v>403240</v>
+        <v>337514</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8261,46 +8300,46 @@
         <v>173</v>
       </c>
       <c r="D28" s="7">
-        <v>160822</v>
+        <v>153801</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>611</v>
+        <v>301</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H28" s="7">
         <v>302</v>
       </c>
       <c r="I28" s="7">
-        <v>210012</v>
+        <v>193591</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>619</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="M28" s="7">
         <v>475</v>
       </c>
       <c r="N28" s="7">
-        <v>370834</v>
+        <v>347392</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>623</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8312,46 +8351,46 @@
         <v>537</v>
       </c>
       <c r="D29" s="7">
-        <v>505951</v>
+        <v>485027</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>618</v>
+        <v>309</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>1048</v>
       </c>
       <c r="I29" s="7">
-        <v>711792</v>
+        <v>702246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>169</v>
+        <v>628</v>
       </c>
       <c r="M29" s="7">
         <v>1585</v>
       </c>
       <c r="N29" s="7">
-        <v>1217743</v>
+        <v>1187273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>630</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8363,7 +8402,7 @@
         <v>710</v>
       </c>
       <c r="D30" s="7">
-        <v>666773</v>
+        <v>638828</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8378,7 +8417,7 @@
         <v>1350</v>
       </c>
       <c r="I30" s="7">
-        <v>921804</v>
+        <v>895837</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8393,7 +8432,7 @@
         <v>2060</v>
       </c>
       <c r="N30" s="7">
-        <v>1588577</v>
+        <v>1534665</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
